--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Alcam-Chl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Alcam-Chl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="H2">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="I2">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="J2">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0226075</v>
+        <v>0.4444129999999999</v>
       </c>
       <c r="N2">
-        <v>0.045215</v>
+        <v>0.8888259999999999</v>
       </c>
       <c r="O2">
-        <v>0.003077625522912161</v>
+        <v>0.0387577774739276</v>
       </c>
       <c r="P2">
-        <v>0.00258364415822999</v>
+        <v>0.03466930282960794</v>
       </c>
       <c r="Q2">
-        <v>0.00446614553625</v>
+        <v>0.1300647972645</v>
       </c>
       <c r="R2">
-        <v>0.017864582145</v>
+        <v>0.5202591890579999</v>
       </c>
       <c r="S2">
-        <v>9.419182239941691E-06</v>
+        <v>5.319726740087602E-05</v>
       </c>
       <c r="T2">
-        <v>5.304190377211534E-06</v>
+        <v>3.182511488747868E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="H3">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="I3">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="J3">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.04106</v>
       </c>
       <c r="O3">
-        <v>0.364884389211074</v>
+        <v>0.2337567488908592</v>
       </c>
       <c r="P3">
-        <v>0.4594766713474919</v>
+        <v>0.3136473777894067</v>
       </c>
       <c r="Q3">
-        <v>0.52950782153</v>
+        <v>0.7844496288299999</v>
       </c>
       <c r="R3">
-        <v>3.17704692918</v>
+        <v>4.70669777298</v>
       </c>
       <c r="S3">
-        <v>0.001116741635037127</v>
+        <v>0.0003208445140042319</v>
       </c>
       <c r="T3">
-        <v>0.0009433000790574054</v>
+        <v>0.0002879164856981111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="H4">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="I4">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="J4">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.007725333333333333</v>
+        <v>8.317588499999999</v>
       </c>
       <c r="N4">
-        <v>0.023176</v>
+        <v>16.635177</v>
       </c>
       <c r="O4">
-        <v>0.001051672367120237</v>
+        <v>0.7253866205594779</v>
       </c>
       <c r="P4">
-        <v>0.00132430691166954</v>
+        <v>0.6488671450172799</v>
       </c>
       <c r="Q4">
-        <v>0.001526151188</v>
+        <v>2.43427951473525</v>
       </c>
       <c r="R4">
-        <v>0.009156907128</v>
+        <v>9.737118058940998</v>
       </c>
       <c r="S4">
-        <v>3.218680638326347E-06</v>
+        <v>0.0009956346451722863</v>
       </c>
       <c r="T4">
-        <v>2.718786159067887E-06</v>
+        <v>0.0005956356128179677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="H5">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="I5">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="J5">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.514199000000001</v>
+        <v>0.02146666666666667</v>
       </c>
       <c r="N5">
-        <v>9.028398000000001</v>
+        <v>0.0644</v>
       </c>
       <c r="O5">
-        <v>0.6145311979610553</v>
+        <v>0.001872133105407911</v>
       </c>
       <c r="P5">
-        <v>0.5158944542933833</v>
+        <v>0.002511968711791455</v>
       </c>
       <c r="Q5">
-        <v>0.8917867837485002</v>
+        <v>0.006282574199999999</v>
       </c>
       <c r="R5">
-        <v>3.567147134994001</v>
+        <v>0.0376954452</v>
       </c>
       <c r="S5">
-        <v>0.001880794561466883</v>
+        <v>2.569609815356748E-06</v>
       </c>
       <c r="T5">
-        <v>0.00105912510877443</v>
+        <v>2.305892715507453E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="H6">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="I6">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="J6">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.082291</v>
+        <v>0.002599666666666667</v>
       </c>
       <c r="N6">
-        <v>0.246873</v>
+        <v>0.007799</v>
       </c>
       <c r="O6">
-        <v>0.01120251606351718</v>
+        <v>0.0002267199703272717</v>
       </c>
       <c r="P6">
-        <v>0.0141066456767602</v>
+        <v>0.0003042056519139993</v>
       </c>
       <c r="Q6">
-        <v>0.0162567104865</v>
+        <v>0.0007608353445</v>
       </c>
       <c r="R6">
-        <v>0.09754026291900002</v>
+        <v>0.004565012067</v>
       </c>
       <c r="S6">
-        <v>3.428569836147482E-05</v>
+        <v>3.111861327634671E-07</v>
       </c>
       <c r="T6">
-        <v>2.896077388020222E-05</v>
+        <v>2.792493367739538E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.293588333333333</v>
+      </c>
+      <c r="H7">
+        <v>3.880765</v>
+      </c>
+      <c r="I7">
+        <v>0.006066714194796498</v>
+      </c>
+      <c r="J7">
+        <v>0.006086101723925661</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.1975515</v>
-      </c>
-      <c r="H7">
-        <v>0.395103</v>
-      </c>
-      <c r="I7">
-        <v>0.003060535523187668</v>
-      </c>
-      <c r="J7">
-        <v>0.002052987970621056</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.03858433333333333</v>
+        <v>0.4444129999999999</v>
       </c>
       <c r="N7">
-        <v>0.115753</v>
+        <v>0.8888259999999999</v>
       </c>
       <c r="O7">
-        <v>0.005252598874321227</v>
+        <v>0.0387577774739276</v>
       </c>
       <c r="P7">
-        <v>0.006614277612464802</v>
+        <v>0.03466930282960794</v>
       </c>
       <c r="Q7">
-        <v>0.0076223929265</v>
+        <v>0.5748874719816666</v>
       </c>
       <c r="R7">
-        <v>0.045734357559</v>
+        <v>3.44932483189</v>
       </c>
       <c r="S7">
-        <v>1.607576544391567E-05</v>
+        <v>0.0002351323587598405</v>
       </c>
       <c r="T7">
-        <v>1.35790323727384E-05</v>
+        <v>0.0002110009037185777</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>3.880765</v>
       </c>
       <c r="I8">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="J8">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0226075</v>
+        <v>2.680353333333333</v>
       </c>
       <c r="N8">
-        <v>0.045215</v>
+        <v>8.04106</v>
       </c>
       <c r="O8">
-        <v>0.003077625522912161</v>
+        <v>0.2337567488908592</v>
       </c>
       <c r="P8">
-        <v>0.00258364415822999</v>
+        <v>0.3136473777894067</v>
       </c>
       <c r="Q8">
-        <v>0.02924479824583333</v>
+        <v>3.467273801211111</v>
       </c>
       <c r="R8">
-        <v>0.175468789475</v>
+        <v>31.2054642109</v>
       </c>
       <c r="S8">
-        <v>6.167781188768046E-05</v>
+        <v>0.001418135386625656</v>
       </c>
       <c r="T8">
-        <v>5.209860813311799E-05</v>
+        <v>0.001908889846668871</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>3.880765</v>
       </c>
       <c r="I9">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="J9">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.680353333333333</v>
+        <v>8.317588499999999</v>
       </c>
       <c r="N9">
-        <v>8.04106</v>
+        <v>16.635177</v>
       </c>
       <c r="O9">
-        <v>0.364884389211074</v>
+        <v>0.7253866205594779</v>
       </c>
       <c r="P9">
-        <v>0.4594766713474919</v>
+        <v>0.6488671450172799</v>
       </c>
       <c r="Q9">
-        <v>3.467273801211111</v>
+        <v>10.7595354450675</v>
       </c>
       <c r="R9">
-        <v>31.2054642109</v>
+        <v>64.55721267040499</v>
       </c>
       <c r="S9">
-        <v>0.007312543566774327</v>
+        <v>0.004400713307663646</v>
       </c>
       <c r="T9">
-        <v>0.009265244585091004</v>
+        <v>0.003949071449888389</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>3.880765</v>
       </c>
       <c r="I10">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="J10">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.007725333333333333</v>
+        <v>0.02146666666666667</v>
       </c>
       <c r="N10">
-        <v>0.023176</v>
+        <v>0.0644</v>
       </c>
       <c r="O10">
-        <v>0.001051672367120237</v>
+        <v>0.001872133105407911</v>
       </c>
       <c r="P10">
-        <v>0.00132430691166954</v>
+        <v>0.002511968711791455</v>
       </c>
       <c r="Q10">
-        <v>0.009993401071111111</v>
+        <v>0.02776902955555555</v>
       </c>
       <c r="R10">
-        <v>0.08994060964</v>
+        <v>0.249921266</v>
       </c>
       <c r="S10">
-        <v>2.107626478394165E-05</v>
+        <v>1.135769648512662E-05</v>
       </c>
       <c r="T10">
-        <v>2.670435346882987E-05</v>
+        <v>1.528809710728129E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>3.880765</v>
       </c>
       <c r="I11">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="J11">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>4.514199000000001</v>
+        <v>0.002599666666666667</v>
       </c>
       <c r="N11">
-        <v>9.028398000000001</v>
+        <v>0.007799</v>
       </c>
       <c r="O11">
-        <v>0.6145311979610553</v>
+        <v>0.0002267199703272717</v>
       </c>
       <c r="P11">
-        <v>0.5158944542933833</v>
+        <v>0.0003042056519139993</v>
       </c>
       <c r="Q11">
-        <v>5.839515160745001</v>
+        <v>0.003362898470555556</v>
       </c>
       <c r="R11">
-        <v>35.03709096447</v>
+        <v>0.030266086235</v>
       </c>
       <c r="S11">
-        <v>0.01231564377952252</v>
+        <v>1.3754452622283E-06</v>
       </c>
       <c r="T11">
-        <v>0.01040289659342754</v>
+        <v>1.85142654254172E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.293588333333333</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="H12">
-        <v>3.880765</v>
+        <v>141.770863</v>
       </c>
       <c r="I12">
-        <v>0.02004071366984202</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="J12">
-        <v>0.02016477693615898</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.082291</v>
+        <v>0.4444129999999999</v>
       </c>
       <c r="N12">
-        <v>0.246873</v>
+        <v>0.8888259999999999</v>
       </c>
       <c r="O12">
-        <v>0.01120251606351718</v>
+        <v>0.0387577774739276</v>
       </c>
       <c r="P12">
-        <v>0.0141066456767602</v>
+        <v>0.03466930282960794</v>
       </c>
       <c r="Q12">
-        <v>0.1064506775383333</v>
+        <v>21.00160484613967</v>
       </c>
       <c r="R12">
-        <v>0.9580560978450001</v>
+        <v>126.009629076838</v>
       </c>
       <c r="S12">
-        <v>0.0002245064168107537</v>
+        <v>0.008589779958489682</v>
       </c>
       <c r="T12">
-        <v>0.0002844573633893009</v>
+        <v>0.007708217378265023</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.293588333333333</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="H13">
-        <v>3.880765</v>
+        <v>141.770863</v>
       </c>
       <c r="I13">
-        <v>0.02004071366984202</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="J13">
-        <v>0.02016477693615898</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.03858433333333333</v>
+        <v>2.680353333333333</v>
       </c>
       <c r="N13">
-        <v>0.115753</v>
+        <v>8.04106</v>
       </c>
       <c r="O13">
-        <v>0.005252598874321227</v>
+        <v>0.2337567488908592</v>
       </c>
       <c r="P13">
-        <v>0.006614277612464802</v>
+        <v>0.3136473777894067</v>
       </c>
       <c r="Q13">
-        <v>0.04991224344944444</v>
+        <v>126.6653350705311</v>
       </c>
       <c r="R13">
-        <v>0.449210191045</v>
+        <v>1139.98801563478</v>
       </c>
       <c r="S13">
-        <v>0.0001052658300628062</v>
+        <v>0.05180686736062555</v>
       </c>
       <c r="T13">
-        <v>0.0001333754326491829</v>
+        <v>0.06973495198348355</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="H14">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="I14">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="J14">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0226075</v>
+        <v>8.317588499999999</v>
       </c>
       <c r="N14">
-        <v>0.045215</v>
+        <v>16.635177</v>
       </c>
       <c r="O14">
-        <v>0.003077625522912161</v>
+        <v>0.7253866205594779</v>
       </c>
       <c r="P14">
-        <v>0.00258364415822999</v>
+        <v>0.6488671450172799</v>
       </c>
       <c r="Q14">
-        <v>0.8985525404899999</v>
+        <v>393.0638999079585</v>
       </c>
       <c r="R14">
-        <v>5.391315242939999</v>
+        <v>2358.383399447751</v>
       </c>
       <c r="S14">
-        <v>0.001895063665601991</v>
+        <v>0.1607654479060339</v>
       </c>
       <c r="T14">
-        <v>0.001600740627461018</v>
+        <v>0.1442662123316764</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="H15">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="I15">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="J15">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>2.680353333333333</v>
+        <v>0.02146666666666667</v>
       </c>
       <c r="N15">
-        <v>8.04106</v>
+        <v>0.0644</v>
       </c>
       <c r="O15">
-        <v>0.364884389211074</v>
+        <v>0.001872133105407911</v>
       </c>
       <c r="P15">
-        <v>0.4594766713474919</v>
+        <v>0.002511968711791455</v>
       </c>
       <c r="Q15">
-        <v>106.5327124661066</v>
+        <v>1.014449286355556</v>
       </c>
       <c r="R15">
-        <v>958.7944121949599</v>
+        <v>9.1300435772</v>
       </c>
       <c r="S15">
-        <v>0.2246794299668332</v>
+        <v>0.0004149157272827569</v>
       </c>
       <c r="T15">
-        <v>0.2846765770176202</v>
+        <v>0.0005584998629206027</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="H16">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="I16">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="J16">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1429,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.007725333333333333</v>
+        <v>0.002599666666666667</v>
       </c>
       <c r="N16">
-        <v>0.023176</v>
+        <v>0.007799</v>
       </c>
       <c r="O16">
-        <v>0.001051672367120237</v>
+        <v>0.0002267199703272717</v>
       </c>
       <c r="P16">
-        <v>0.00132430691166954</v>
+        <v>0.0003042056519139993</v>
       </c>
       <c r="Q16">
-        <v>0.3070493372906666</v>
+        <v>0.1228523289485556</v>
       </c>
       <c r="R16">
-        <v>2.763444035616</v>
+        <v>1.105670960537</v>
       </c>
       <c r="S16">
-        <v>0.0006475726420287035</v>
+        <v>5.024732542046927E-05</v>
       </c>
       <c r="T16">
-        <v>0.0008204968435704205</v>
+        <v>6.763572097698417E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.745772</v>
+        <v>1.7450655</v>
       </c>
       <c r="H17">
-        <v>119.237316</v>
+        <v>3.490131</v>
       </c>
       <c r="I17">
-        <v>0.6157551175390608</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="J17">
-        <v>0.6195669873353064</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.514199000000001</v>
+        <v>0.4444129999999999</v>
       </c>
       <c r="N17">
-        <v>9.028398000000001</v>
+        <v>0.8888259999999999</v>
       </c>
       <c r="O17">
-        <v>0.6145311979610553</v>
+        <v>0.0387577774739276</v>
       </c>
       <c r="P17">
-        <v>0.5158944542933833</v>
+        <v>0.03466930282960794</v>
       </c>
       <c r="Q17">
-        <v>179.420324216628</v>
+        <v>0.7755297940514999</v>
       </c>
       <c r="R17">
-        <v>1076.521945299768</v>
+        <v>3.102119176206</v>
       </c>
       <c r="S17">
-        <v>0.3784007300319294</v>
+        <v>0.0003171962490942537</v>
       </c>
       <c r="T17">
-        <v>0.3196311728295434</v>
+        <v>0.0001897617596263168</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.745772</v>
+        <v>1.7450655</v>
       </c>
       <c r="H18">
-        <v>119.237316</v>
+        <v>3.490131</v>
       </c>
       <c r="I18">
-        <v>0.6157551175390608</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="J18">
-        <v>0.6195669873353064</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.082291</v>
+        <v>2.680353333333333</v>
       </c>
       <c r="N18">
-        <v>0.246873</v>
+        <v>8.04106</v>
       </c>
       <c r="O18">
-        <v>0.01120251606351718</v>
+        <v>0.2337567488908592</v>
       </c>
       <c r="P18">
-        <v>0.0141066456767602</v>
+        <v>0.3136473777894067</v>
       </c>
       <c r="Q18">
-        <v>3.270719323652</v>
+        <v>4.677392129809999</v>
       </c>
       <c r="R18">
-        <v>29.436473912868</v>
+        <v>28.06435277886</v>
       </c>
       <c r="S18">
-        <v>0.006898006595424238</v>
+        <v>0.001913080903530305</v>
       </c>
       <c r="T18">
-        <v>0.00874001196335694</v>
+        <v>0.001716742866276178</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.745772</v>
+        <v>1.7450655</v>
       </c>
       <c r="H19">
-        <v>119.237316</v>
+        <v>3.490131</v>
       </c>
       <c r="I19">
-        <v>0.6157551175390608</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="J19">
-        <v>0.6195669873353064</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.03858433333333333</v>
+        <v>8.317588499999999</v>
       </c>
       <c r="N19">
-        <v>0.115753</v>
+        <v>16.635177</v>
       </c>
       <c r="O19">
-        <v>0.005252598874321227</v>
+        <v>0.7253866205594779</v>
       </c>
       <c r="P19">
-        <v>0.006614277612464802</v>
+        <v>0.6488671450172799</v>
       </c>
       <c r="Q19">
-        <v>1.533564115438666</v>
+        <v>14.51473673454675</v>
       </c>
       <c r="R19">
-        <v>13.802077038948</v>
+        <v>58.05894693818699</v>
       </c>
       <c r="S19">
-        <v>0.003234314637243206</v>
+        <v>0.005936612731197107</v>
       </c>
       <c r="T19">
-        <v>0.00409798805375418</v>
+        <v>0.003551561789613752</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="H20">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="I20">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="J20">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.0226075</v>
+        <v>0.02146666666666667</v>
       </c>
       <c r="N20">
-        <v>0.045215</v>
+        <v>0.0644</v>
       </c>
       <c r="O20">
-        <v>0.003077625522912161</v>
+        <v>0.001872133105407911</v>
       </c>
       <c r="P20">
-        <v>0.00258364415822999</v>
+        <v>0.002511968711791455</v>
       </c>
       <c r="Q20">
-        <v>0.02246820388875</v>
+        <v>0.0374607394</v>
       </c>
       <c r="R20">
-        <v>0.089872815555</v>
+        <v>0.2247644364</v>
       </c>
       <c r="S20">
-        <v>4.738585102401293E-05</v>
+        <v>1.532166283889831E-05</v>
       </c>
       <c r="T20">
-        <v>2.668422466142927E-05</v>
+        <v>1.374921224169275E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="H21">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="I21">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="J21">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>2.680353333333333</v>
+        <v>0.002599666666666667</v>
       </c>
       <c r="N21">
-        <v>8.04106</v>
+        <v>0.007799</v>
       </c>
       <c r="O21">
-        <v>0.364884389211074</v>
+        <v>0.0002267199703272717</v>
       </c>
       <c r="P21">
-        <v>0.4594766713474919</v>
+        <v>0.0003042056519139993</v>
       </c>
       <c r="Q21">
-        <v>2.66383833627</v>
+        <v>0.0045365886115</v>
       </c>
       <c r="R21">
-        <v>15.98303001762</v>
+        <v>0.027219531669</v>
       </c>
       <c r="S21">
-        <v>0.005618083545064683</v>
+        <v>1.855491436033663E-06</v>
       </c>
       <c r="T21">
-        <v>0.004745536913768273</v>
+        <v>1.665063762002512E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>130.2026166666667</v>
+      </c>
+      <c r="H22">
+        <v>390.60785</v>
+      </c>
+      <c r="I22">
+        <v>0.6106286230147772</v>
+      </c>
+      <c r="J22">
+        <v>0.6125800220482033</v>
+      </c>
+      <c r="K22">
         <v>2</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.9938385000000001</v>
-      </c>
-      <c r="H22">
-        <v>1.987677</v>
-      </c>
-      <c r="I22">
-        <v>0.01539688655141342</v>
-      </c>
-      <c r="J22">
-        <v>0.0103281346142149</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.007725333333333333</v>
+        <v>0.4444129999999999</v>
       </c>
       <c r="N22">
-        <v>0.023176</v>
+        <v>0.8888259999999999</v>
       </c>
       <c r="O22">
-        <v>0.001051672367120237</v>
+        <v>0.0387577774739276</v>
       </c>
       <c r="P22">
-        <v>0.00132430691166954</v>
+        <v>0.03466930282960794</v>
       </c>
       <c r="Q22">
-        <v>0.007677733692000001</v>
+        <v>57.86373548068333</v>
       </c>
       <c r="R22">
-        <v>0.046066402152</v>
+        <v>347.1824128841</v>
       </c>
       <c r="S22">
-        <v>1.619248012580668E-05</v>
+        <v>0.02366660829001756</v>
       </c>
       <c r="T22">
-        <v>1.367762005425821E-05</v>
+        <v>0.02123772229175707</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9938385000000001</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="H23">
-        <v>1.987677</v>
+        <v>390.60785</v>
       </c>
       <c r="I23">
-        <v>0.01539688655141342</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="J23">
-        <v>0.0103281346142149</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.514199000000001</v>
+        <v>2.680353333333333</v>
       </c>
       <c r="N23">
-        <v>9.028398000000001</v>
+        <v>8.04106</v>
       </c>
       <c r="O23">
-        <v>0.6145311979610553</v>
+        <v>0.2337567488908592</v>
       </c>
       <c r="P23">
-        <v>0.5158944542933833</v>
+        <v>0.3136473777894067</v>
       </c>
       <c r="Q23">
-        <v>4.486384762861501</v>
+        <v>348.9890175912222</v>
       </c>
       <c r="R23">
-        <v>17.945539051446</v>
+        <v>3140.901158321</v>
       </c>
       <c r="S23">
-        <v>0.009461867137310547</v>
+        <v>0.1427385616956364</v>
       </c>
       <c r="T23">
-        <v>0.005328227370668998</v>
+        <v>0.1921341176015959</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9938385000000001</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="H24">
-        <v>1.987677</v>
+        <v>390.60785</v>
       </c>
       <c r="I24">
-        <v>0.01539688655141342</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="J24">
-        <v>0.0103281346142149</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.082291</v>
+        <v>8.317588499999999</v>
       </c>
       <c r="N24">
-        <v>0.246873</v>
+        <v>16.635177</v>
       </c>
       <c r="O24">
-        <v>0.01120251606351718</v>
+        <v>0.7253866205594779</v>
       </c>
       <c r="P24">
-        <v>0.0141066456767602</v>
+        <v>0.6488671450172799</v>
       </c>
       <c r="Q24">
-        <v>0.08178396400350001</v>
+        <v>1082.971787056575</v>
       </c>
       <c r="R24">
-        <v>0.4907037840210001</v>
+        <v>6497.830722339449</v>
       </c>
       <c r="S24">
-        <v>0.0001724838689203605</v>
+        <v>0.4429418332655766</v>
       </c>
       <c r="T24">
-        <v>0.0001456953355046119</v>
+        <v>0.3974830500010401</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,25 +1960,25 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9938385000000001</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="H25">
-        <v>1.987677</v>
+        <v>390.60785</v>
       </c>
       <c r="I25">
-        <v>0.01539688655141342</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="J25">
-        <v>0.0103281346142149</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.03858433333333333</v>
+        <v>0.02146666666666667</v>
       </c>
       <c r="N25">
-        <v>0.115753</v>
+        <v>0.0644</v>
       </c>
       <c r="O25">
-        <v>0.005252598874321227</v>
+        <v>0.001872133105407911</v>
       </c>
       <c r="P25">
-        <v>0.006614277612464802</v>
+        <v>0.002511968711791455</v>
       </c>
       <c r="Q25">
-        <v>0.0383465959635</v>
+        <v>2.795016171111111</v>
       </c>
       <c r="R25">
-        <v>0.230079575781</v>
+        <v>25.15514554</v>
       </c>
       <c r="S25">
-        <v>8.087366896800574E-05</v>
+        <v>0.001143178060255611</v>
       </c>
       <c r="T25">
-        <v>6.831314955732439E-05</v>
+        <v>0.001538781848853606</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.237281</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="H26">
-        <v>0.711843</v>
+        <v>390.60785</v>
       </c>
       <c r="I26">
-        <v>0.003676038549327609</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="J26">
-        <v>0.003698795291280512</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.0226075</v>
+        <v>0.002599666666666667</v>
       </c>
       <c r="N26">
-        <v>0.045215</v>
+        <v>0.007799</v>
       </c>
       <c r="O26">
-        <v>0.003077625522912161</v>
+        <v>0.0002267199703272717</v>
       </c>
       <c r="P26">
-        <v>0.00258364415822999</v>
+        <v>0.0003042056519139993</v>
       </c>
       <c r="Q26">
-        <v>0.005364330207499999</v>
+        <v>0.3384834024611111</v>
       </c>
       <c r="R26">
-        <v>0.032185981245</v>
+        <v>3.04635062215</v>
       </c>
       <c r="S26">
-        <v>1.131347006261964E-05</v>
+        <v>0.0001384417032908931</v>
       </c>
       <c r="T26">
-        <v>9.556370846805489E-06</v>
+        <v>0.0001863503049566657</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.237281</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="H27">
-        <v>0.711843</v>
+        <v>97.308853</v>
       </c>
       <c r="I27">
-        <v>0.003676038549327609</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="J27">
-        <v>0.003698795291280512</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.680353333333333</v>
+        <v>0.4444129999999999</v>
       </c>
       <c r="N27">
-        <v>8.04106</v>
+        <v>0.8888259999999999</v>
       </c>
       <c r="O27">
-        <v>0.364884389211074</v>
+        <v>0.0387577774739276</v>
       </c>
       <c r="P27">
-        <v>0.4594766713474919</v>
+        <v>0.03466930282960794</v>
       </c>
       <c r="Q27">
-        <v>0.6359969192866666</v>
+        <v>14.41510642942966</v>
       </c>
       <c r="R27">
-        <v>5.72397227358</v>
+        <v>86.49063857657799</v>
       </c>
       <c r="S27">
-        <v>0.001341329080787767</v>
+        <v>0.005895863350165389</v>
       </c>
       <c r="T27">
-        <v>0.001699510148433346</v>
+        <v>0.005290775381353477</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.237281</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="H28">
-        <v>0.711843</v>
+        <v>97.308853</v>
       </c>
       <c r="I28">
-        <v>0.003676038549327609</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="J28">
-        <v>0.003698795291280512</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.007725333333333333</v>
+        <v>2.680353333333333</v>
       </c>
       <c r="N28">
-        <v>0.023176</v>
+        <v>8.04106</v>
       </c>
       <c r="O28">
-        <v>0.001051672367120237</v>
+        <v>0.2337567488908592</v>
       </c>
       <c r="P28">
-        <v>0.00132430691166954</v>
+        <v>0.3136473777894067</v>
       </c>
       <c r="Q28">
-        <v>0.001833074818666667</v>
+        <v>86.94070283379777</v>
       </c>
       <c r="R28">
-        <v>0.016497673368</v>
+        <v>782.46632550418</v>
       </c>
       <c r="S28">
-        <v>3.865988162796606E-06</v>
+        <v>0.03555925903043708</v>
       </c>
       <c r="T28">
-        <v>4.898340169093532E-06</v>
+        <v>0.04786475900568411</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.237281</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="H29">
-        <v>0.711843</v>
+        <v>97.308853</v>
       </c>
       <c r="I29">
-        <v>0.003676038549327609</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="J29">
-        <v>0.003698795291280512</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.514199000000001</v>
+        <v>8.317588499999999</v>
       </c>
       <c r="N29">
-        <v>9.028398000000001</v>
+        <v>16.635177</v>
       </c>
       <c r="O29">
-        <v>0.6145311979610553</v>
+        <v>0.7253866205594779</v>
       </c>
       <c r="P29">
-        <v>0.5158944542933833</v>
+        <v>0.6488671450172799</v>
       </c>
       <c r="Q29">
-        <v>1.071133652919</v>
+        <v>269.7916655536634</v>
       </c>
       <c r="R29">
-        <v>6.426801917514001</v>
+        <v>1618.749993321981</v>
       </c>
       <c r="S29">
-        <v>0.002259040373469315</v>
+        <v>0.1103463787038343</v>
       </c>
       <c r="T29">
-        <v>0.001908187978338096</v>
+        <v>0.09902161383224341</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.237281</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="H30">
-        <v>0.711843</v>
+        <v>97.308853</v>
       </c>
       <c r="I30">
-        <v>0.003676038549327609</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="J30">
-        <v>0.003698795291280512</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>0.082291</v>
+        <v>0.02146666666666667</v>
       </c>
       <c r="N30">
-        <v>0.246873</v>
+        <v>0.0644</v>
       </c>
       <c r="O30">
-        <v>0.01120251606351718</v>
+        <v>0.001872133105407911</v>
       </c>
       <c r="P30">
-        <v>0.0141066456767602</v>
+        <v>0.002511968711791455</v>
       </c>
       <c r="Q30">
-        <v>0.019526090771</v>
+        <v>0.6962989036888888</v>
       </c>
       <c r="R30">
-        <v>0.175734816939</v>
+        <v>6.2666901332</v>
       </c>
       <c r="S30">
-        <v>4.118088089895093E-05</v>
+        <v>0.0002847903487301609</v>
       </c>
       <c r="T30">
-        <v>5.217759460496322E-05</v>
+        <v>0.0003833437979527646</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.237281</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="H31">
-        <v>0.711843</v>
+        <v>97.308853</v>
       </c>
       <c r="I31">
-        <v>0.003676038549327609</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="J31">
-        <v>0.003698795291280512</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,400 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.03858433333333333</v>
+        <v>0.002599666666666667</v>
       </c>
       <c r="N31">
-        <v>0.115753</v>
+        <v>0.007799</v>
       </c>
       <c r="O31">
-        <v>0.005252598874321227</v>
+        <v>0.0002267199703272717</v>
       </c>
       <c r="P31">
-        <v>0.006614277612464802</v>
+        <v>0.0003042056519139993</v>
       </c>
       <c r="Q31">
-        <v>0.009155329197666666</v>
+        <v>0.08432352717188889</v>
       </c>
       <c r="R31">
-        <v>0.08239796277899999</v>
+        <v>0.7589117445470001</v>
       </c>
       <c r="S31">
-        <v>1.930875594615963E-05</v>
+        <v>3.448881878488393E-05</v>
       </c>
       <c r="T31">
-        <v>2.446485888820692E-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>22.079986</v>
-      </c>
-      <c r="H32">
-        <v>66.239958</v>
-      </c>
-      <c r="I32">
-        <v>0.3420707081671685</v>
-      </c>
-      <c r="J32">
-        <v>0.3441883178524182</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>0.5</v>
-      </c>
-      <c r="M32">
-        <v>0.0226075</v>
-      </c>
-      <c r="N32">
-        <v>0.045215</v>
-      </c>
-      <c r="O32">
-        <v>0.003077625522912161</v>
-      </c>
-      <c r="P32">
-        <v>0.00258364415822999</v>
-      </c>
-      <c r="Q32">
-        <v>0.499173283495</v>
-      </c>
-      <c r="R32">
-        <v>2.99503970097</v>
-      </c>
-      <c r="S32">
-        <v>0.001052765542095915</v>
-      </c>
-      <c r="T32">
-        <v>0.0008892601367504071</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>22.079986</v>
-      </c>
-      <c r="H33">
-        <v>66.239958</v>
-      </c>
-      <c r="I33">
-        <v>0.3420707081671685</v>
-      </c>
-      <c r="J33">
-        <v>0.3441883178524182</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>2.680353333333333</v>
-      </c>
-      <c r="N33">
-        <v>8.04106</v>
-      </c>
-      <c r="O33">
-        <v>0.364884389211074</v>
-      </c>
-      <c r="P33">
-        <v>0.4594766713474919</v>
-      </c>
-      <c r="Q33">
-        <v>59.18216407505334</v>
-      </c>
-      <c r="R33">
-        <v>532.63947667548</v>
-      </c>
-      <c r="S33">
-        <v>0.1248162614165768</v>
-      </c>
-      <c r="T33">
-        <v>0.1581465026035216</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>22.079986</v>
-      </c>
-      <c r="H34">
-        <v>66.239958</v>
-      </c>
-      <c r="I34">
-        <v>0.3420707081671685</v>
-      </c>
-      <c r="J34">
-        <v>0.3441883178524182</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.007725333333333333</v>
-      </c>
-      <c r="N34">
-        <v>0.023176</v>
-      </c>
-      <c r="O34">
-        <v>0.001051672367120237</v>
-      </c>
-      <c r="P34">
-        <v>0.00132430691166954</v>
-      </c>
-      <c r="Q34">
-        <v>0.1705752518453333</v>
-      </c>
-      <c r="R34">
-        <v>1.535177266608</v>
-      </c>
-      <c r="S34">
-        <v>0.0003597463113806617</v>
-      </c>
-      <c r="T34">
-        <v>0.0004558109682478699</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>22.079986</v>
-      </c>
-      <c r="H35">
-        <v>66.239958</v>
-      </c>
-      <c r="I35">
-        <v>0.3420707081671685</v>
-      </c>
-      <c r="J35">
-        <v>0.3441883178524182</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>4.514199000000001</v>
-      </c>
-      <c r="N35">
-        <v>9.028398000000001</v>
-      </c>
-      <c r="O35">
-        <v>0.6145311979610553</v>
-      </c>
-      <c r="P35">
-        <v>0.5158944542933833</v>
-      </c>
-      <c r="Q35">
-        <v>99.67345072121402</v>
-      </c>
-      <c r="R35">
-        <v>598.0407043272841</v>
-      </c>
-      <c r="S35">
-        <v>0.2102131220773566</v>
-      </c>
-      <c r="T35">
-        <v>0.1775648444126308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>22.079986</v>
-      </c>
-      <c r="H36">
-        <v>66.239958</v>
-      </c>
-      <c r="I36">
-        <v>0.3420707081671685</v>
-      </c>
-      <c r="J36">
-        <v>0.3441883178524182</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M36">
-        <v>0.082291</v>
-      </c>
-      <c r="N36">
-        <v>0.246873</v>
-      </c>
-      <c r="O36">
-        <v>0.01120251606351718</v>
-      </c>
-      <c r="P36">
-        <v>0.0141066456767602</v>
-      </c>
-      <c r="Q36">
-        <v>1.816984127926</v>
-      </c>
-      <c r="R36">
-        <v>16.352857151334</v>
-      </c>
-      <c r="S36">
-        <v>0.003832052603101403</v>
-      </c>
-      <c r="T36">
-        <v>0.00485534264602418</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>22.079986</v>
-      </c>
-      <c r="H37">
-        <v>66.239958</v>
-      </c>
-      <c r="I37">
-        <v>0.3420707081671685</v>
-      </c>
-      <c r="J37">
-        <v>0.3441883178524182</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M37">
-        <v>0.03858433333333333</v>
-      </c>
-      <c r="N37">
-        <v>0.115753</v>
-      </c>
-      <c r="O37">
-        <v>0.005252598874321227</v>
-      </c>
-      <c r="P37">
-        <v>0.006614277612464802</v>
-      </c>
-      <c r="Q37">
-        <v>0.8519415398193334</v>
-      </c>
-      <c r="R37">
-        <v>7.667473858374</v>
-      </c>
-      <c r="S37">
-        <v>0.001796760216657134</v>
-      </c>
-      <c r="T37">
-        <v>0.002276557085243169</v>
+        <v>4.642388633903122E-05</v>
       </c>
     </row>
   </sheetData>
